--- a/results/FrequencyTables/26581162_sg172F.xlsx
+++ b/results/FrequencyTables/26581162_sg172F.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0206185567010309</v>
+        <v>0.042332268370607</v>
       </c>
       <c r="C2">
-        <v>0.0412371134020619</v>
+        <v>0.0375399361022364</v>
       </c>
       <c r="D2">
-        <v>0.958762886597938</v>
+        <v>0.952076677316294</v>
       </c>
       <c r="E2">
-        <v>0.0103092783505155</v>
+        <v>0.0519169329073482</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0167731629392971</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0359424920127796</v>
       </c>
       <c r="H2">
-        <v>0.958762886597938</v>
+        <v>0.958466453674121</v>
       </c>
       <c r="I2">
-        <v>0.0412371134020619</v>
+        <v>0.0311501597444089</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.969648562300319</v>
       </c>
       <c r="K2">
-        <v>0.0309278350515464</v>
+        <v>0.0207667731629393</v>
       </c>
       <c r="L2">
-        <v>0.731958762886598</v>
+        <v>0.669329073482428</v>
       </c>
       <c r="M2">
-        <v>0.948453608247423</v>
+        <v>0.962460063897764</v>
       </c>
       <c r="N2">
-        <v>0.0824742268041237</v>
+        <v>0.144568690095847</v>
       </c>
       <c r="O2">
-        <v>0.0618556701030928</v>
+        <v>0.097444089456869</v>
       </c>
       <c r="P2">
-        <v>0.0103092783505155</v>
+        <v>0.00479233226837061</v>
       </c>
       <c r="Q2">
-        <v>0.989690721649485</v>
+        <v>0.982428115015974</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00399361022364217</v>
       </c>
       <c r="S2">
-        <v>0.948453608247423</v>
+        <v>0.975239616613419</v>
       </c>
       <c r="T2">
-        <v>0.989690721649485</v>
+        <v>0.976038338658147</v>
       </c>
       <c r="U2">
-        <v>0.164948453608247</v>
+        <v>0.232428115015974</v>
       </c>
       <c r="V2">
-        <v>0.948453608247423</v>
+        <v>0.958466453674121</v>
       </c>
       <c r="W2">
-        <v>0.0515463917525773</v>
+        <v>0.0535143769968051</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.012779552715655</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0618556701030928</v>
+        <v>0.0167731629392971</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00319488817891374</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00878594249201278</v>
       </c>
       <c r="E3">
-        <v>0.123711340206186</v>
+        <v>0.10223642172524</v>
       </c>
       <c r="F3">
-        <v>0.958762886597938</v>
+        <v>0.94888178913738</v>
       </c>
       <c r="G3">
-        <v>0.958762886597938</v>
+        <v>0.938498402555911</v>
       </c>
       <c r="H3">
-        <v>0.0412371134020619</v>
+        <v>0.0295527156549521</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00638977635782748</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00559105431309904</v>
       </c>
       <c r="K3">
-        <v>0.0412371134020619</v>
+        <v>0.0527156549520767</v>
       </c>
       <c r="L3">
-        <v>0.0927835051546392</v>
+        <v>0.154952076677316</v>
       </c>
       <c r="M3">
-        <v>0.0103092783505155</v>
+        <v>0.00878594249201278</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00319488817891374</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00159744408945687</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0412371134020619</v>
+        <v>0.0207667731629393</v>
       </c>
       <c r="S3">
-        <v>0.0412371134020619</v>
+        <v>0.0175718849840256</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00479233226837061</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0103833865814696</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00878594249201278</v>
       </c>
       <c r="X3">
-        <v>0.0103092783505155</v>
+        <v>0.0103833865814696</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.175257731958763</v>
+        <v>0.133386581469649</v>
       </c>
       <c r="C4">
-        <v>0.917525773195876</v>
+        <v>0.935303514376997</v>
       </c>
       <c r="D4">
-        <v>0.0412371134020619</v>
+        <v>0.0319488817891374</v>
       </c>
       <c r="E4">
-        <v>0.752577319587629</v>
+        <v>0.662140575079872</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0135782747603834</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00718849840255591</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00638977635782748</v>
       </c>
       <c r="I4">
-        <v>0.958762886597938</v>
+        <v>0.957667731629393</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0159744408945687</v>
       </c>
       <c r="K4">
-        <v>0.474226804123711</v>
+        <v>0.619009584664537</v>
       </c>
       <c r="L4">
-        <v>0.175257731958763</v>
+        <v>0.166932907348243</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0023961661341853</v>
       </c>
       <c r="N4">
-        <v>0.855670103092783</v>
+        <v>0.833067092651757</v>
       </c>
       <c r="O4">
-        <v>0.927835051546392</v>
+        <v>0.89776357827476</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00638977635782748</v>
       </c>
       <c r="Q4">
-        <v>0.0103092783505155</v>
+        <v>0.0175718849840256</v>
       </c>
       <c r="R4">
-        <v>0.958762886597938</v>
+        <v>0.975239616613419</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000798722044728434</v>
       </c>
       <c r="T4">
-        <v>0.0103092783505155</v>
+        <v>0.0215654952076677</v>
       </c>
       <c r="U4">
-        <v>0.824742268041237</v>
+        <v>0.756389776357827</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00878594249201278</v>
       </c>
       <c r="W4">
-        <v>0.907216494845361</v>
+        <v>0.915335463258786</v>
       </c>
       <c r="X4">
-        <v>0.989690721649485</v>
+        <v>0.972044728434505</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,49 +687,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.742268041237113</v>
+        <v>0.807507987220447</v>
       </c>
       <c r="C5">
-        <v>0.0412371134020619</v>
+        <v>0.023961661341853</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00559105431309904</v>
       </c>
       <c r="E5">
-        <v>0.11340206185567</v>
+        <v>0.18370607028754</v>
       </c>
       <c r="F5">
-        <v>0.0412371134020619</v>
+        <v>0.0207667731629393</v>
       </c>
       <c r="G5">
-        <v>0.0412371134020619</v>
+        <v>0.0175718849840256</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00559105431309904</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00878594249201278</v>
       </c>
       <c r="K5">
-        <v>0.45360824742268</v>
+        <v>0.307507987220447</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00479233226837061</v>
       </c>
       <c r="M5">
-        <v>0.0412371134020619</v>
+        <v>0.0223642172523962</v>
       </c>
       <c r="N5">
-        <v>0.0618556701030928</v>
+        <v>0.0223642172523962</v>
       </c>
       <c r="O5">
-        <v>0.0103092783505155</v>
+        <v>0.00159744408945687</v>
       </c>
       <c r="P5">
-        <v>0.989690721649485</v>
+        <v>0.987220447284345</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0103092783505155</v>
+        <v>0.00638977635782748</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0023961661341853</v>
       </c>
       <c r="U5">
-        <v>0.0103092783505155</v>
+        <v>0.00638977635782748</v>
       </c>
       <c r="V5">
-        <v>0.0515463917525773</v>
+        <v>0.0223642172523962</v>
       </c>
       <c r="W5">
-        <v>0.0412371134020619</v>
+        <v>0.0215654952076677</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00479233226837061</v>
       </c>
     </row>
   </sheetData>
